--- a/500all/speech_level/speeches_CHRG-114hhrg95069.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95069.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. The Subcommittee on Housing and Insurance will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``The Future of Housing in America: Oversight of the Rural Housing Service.''    Before I begin, I would like to thank the witnesses for appearing before the subcommittee today. I look forward to your testimony.    I realize that we don't have--there are only two clocks here that tell time for the witnesses and/or the rest of the members of the subcommittee. We will try and give you a little heads-up whenever we get down to the 30-second mark. But as everybody knows, you have 5 minutes to ask your questions. And at that point, we will try to be a little bit liberal because of the lack of clock time to actually know when you are going to be gaveled out. But as far as that goes, our witnesses are here today and we certainly welcome them.    I would like to recognize myself for 3 minutes to give an opening statement.    Like many of my colleagues, I represent a rural area. My hometown has 336 people. It is a place where it takes several jobs to make a living, and where the incredible benefits of living in rural America far outweigh the challenges.    These aren't areas that easily attract major construction projects or real estate investors. There is limited housing, particularly for those in need of affordable rental housing. That is why the mission of the Rural Housing Service (RHS) is important. That is also why this subcommittee will dedicate time today and in the future to examine the objectives, successes, and opportunities for improvement of RHS.    Last week, I met with a REALTOR\x04 from Miller County, Missouri. The bulk of her business is with RHS. This isn't a REALTOR\x04 making a living off of million dollar home sales. This is someone who has spent her adult life in my community and has focused solely on helping qualified borrowers in Miller County get into a home they can afford and have the opportunity to live the America Dream.    It sounds like the process of dealing with RHS can be a big nightmare. There is little to no continuity across government programs, and there seems to be a significant lack of flexibility for RHS customers. Its systems are outdated and incredibly inefficient. The real estate agent from Miller County tells each of her customers to photocopy and file every check sent to RHS because RHS loses, in her experience, an average of at least one mortgage check a year per household.    It is 2015, and we have a program that operates like it is 1975. A status quo isn't acceptable. Rural Americans deserve more. RHS should heed suggestions immediately by GAO and increase interagency collaboration and consider consolidation where appropriate. It is incumbent upon this committee to ensure that RHS is also appropriately managing risk.    RHS oversees a $120 billion portfolio in direct loans and loan guarantees, but doesn't have a chief risk officer or modern underwriting systems in place. That is why GAO is currently studying the RHS risk management practices in addition to specific housing assistance programs and duplication of Federal housing programs.    Today's hearing will allow those concerned with the future of housing--members of this committee, and people across rural America--to better understand the challenges facing rural housing and the opportunities to improve a system plagued with inefficiencies. We continue to see throughout the Nation an overwhelming need for affordable housing, and we need to ensure that RHS is doing everything in its power to fill that need.    I want to thank the witnesses for appearing today. We look forward to your testimony.    The Chair now recognizes the ranking member of the subcommittee, the gentleman from Missouri, my colleague and friend, Mr. Cleaver, for 5 minutes for an opening statement.</t>
   </si>
   <si>
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman.    Housing is always an important discussion for me, for a number of reasons. Some of them, maybe the majority of them, are from my own personal life experience. I often say to groups in both the urban part of my district, Kansas City, Missouri, and in the rural parts of my district, the eastern part, that there is a symbiotic relationship between urban and rural.    I actually wish--and this will never happen during my lifetime--that all congressional districts could be designed where there is an urban and a rural component. Because I think we would have far fewer political conflicts. And one of the unintended blessings for me when the district lines were redrawn is that I was given 3 rural counties, counties that were previously represented by Congressman Ike Skelton, who had been here 34 years and was born and raised in one of those counties, Lafayette County.    So I am very, very happy whenever we get into these issues. I think my district represents a microcosm of the Nation. I think everybody is there.    The RHS program, which is operated by the USDA, provides the kinds of housing options that do not exist outside of rural America. The 502 Guaranteed Program offers borrowers an opportunity for homeownership with no money down. And it keeps rural families where they desire to live, in rural America.    In my own district, 346 loans were administered in Fiscal Year 2013. And Missouri ranked as 7th in the Nation in administering the Guaranteed Rural Housing Program. The Section 502 Direct Loan Program is one of only a few programs in the Nation which is targeted to low- and very-low-income rural families.    And contrary to what perhaps many urban dwellers believe, people in rural areas are in many instances struggling like people in the urban core. Given the lack of credit options, the unacceptable rates of poverty, and the limited housing choices facing many in the rural areas, we must continue to keep the USDA housing programs well-funded and productive.    In fact, I think we need additional funding. And, of course, I agree with the Chair that there are some things we can do better to streamline the programs that we are operating. But I am not so sure that we cannot do both: streamline the programs; and make sure that adequate funding is there.    Finally--and I guess I do need to mention this just because it makes me feel good--the central collection and service center for this program operates in our State, in St. Louis, Missouri. Why did I mention that? Because I can, and because I want everybody to know.    So I want to thank the witnesses. And I am very, very interested in having a dialogue with you as we move through this hearing.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hernandez. Thank you, Mr. Chairman. I am glad to be here. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, thank you for the opportunity to testify regarding the work we do to support rural families and communities.    As Administrator, I have the privilege of managing programs that turn dreams of homeownership into reality. We provide rental housing that families can afford. And we develop facilities like hospitals, fire stations, and schools that are essential to a thriving rural America. Our housing programs only serve rural families with limited incomes, a segment market that private lenders and landlords rarely reach.    Through mortgage lending and guarantees and rental assistance to private property owners, we help sustain and grow rural economies. To do this effectively, the majority of our staff lives and works in the areas they serve. We are a storefront operation.    Our staff works in America's small rural towns. They focus our programs on the specific economic challenges and opportunities within their arena. This intimate hands-on approach is what makes us unique and effective. We provide the support and direct oversight necessary to serve families with limited resources.    We remain committed to continuous enhancements of our service to the public through predictability, consistency, accuracy, and enhanced communication. These four elements are guiding our process improvements at the Rural Housing Service. During my tenure, we are embracing innovation improvement through automation and streamlining. We are utilizing technologies to create efficiencies that benefit rural families, our lenders, our staff, and ultimately, the taxpayers.    In April, we modernized the Guarantee Single Family Loan Program by implementing a paperless operation. Field offices are now able to transact business with approved lenders electronically. This has resulted in significant savings of paper, postage, and most importantly, time.    We estimate that more than $4 million nationwide will be saved in just 1 year through paperless processing. Similarly, we have begun rolling out new assessment and underwriting tools in our multi-family program. These will improve our transfer process from a willing seller to a willing buyer. It will be more transparent and attract more nonprofits to partner with us. This will extend the value of the Federal investment to over 400,000 rural rental properties.    Our goal for 2016 is providing more than 170,000 rural residents the assistance needed to become homeowners through 25 billion direct loans and guarantees. Multi-family housing programs request just over $1 billion, with the fund--the renewals of nearly 250,000 rental assistance agreements and support over 5,000 new units.    Funding alone cannot ensure long-term viability to address programmatic challenges. In the multi-family housing program, we propose administrative tools that provide management flexibility to better administer the program.    In the Single Family Housing Guarantee Program, we propose a user fee to support technology and maintenance costs associated with the automation. We also request delegated loan approval authority for selected high-performing lenders.    Although rural America lags in terms of recover from the recession, the delinquency in foreclosure rates in our housing portfolio remains very low. This is a testament to our prudent underwriting and strong loan servicing and our careful oversight.    As of March, the foreclosure rate of the guaranteed loan program was 1.5 percent, the lowest it has been in nearly 5 years. Even in the direct loan portfolio, more than 9 out of 10 families served succeeded in homeownership. Our success is due in part to the strength of our hardworking people in rural America.    I believe, and I am sure that many of you do too, that rural Americans deserve an opportunity to own or rent a decent, safe, and affordable house. Since the passage of the Housing Act of 1949, 3.8 million rural Americans have received housing loans and accumulated assets through equity in their homes.    Our single family housing program fills a gap in the private market. We are one of the most critical resources available to help smaller, poorer, and more rural communities gain access to mortgage credit. There is a strong and consistent demand for our programs. We change people's lives every day.    Congress has had the foresight to strategically place comprehensive programs for rural America in one agency, USDA. We take seriously the charge to help address any challenges faced by rural residents in need of safe and affordable housing.    Thank you for the opportunity to serve in this agency that uses our programs to support our affordable housing in rural America. I am happy to answer your questions at this time.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Hernandez can be found on page 44 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Luetkemeyer. Thank you, Mr. Hernandez.    Mr. Scire, you are now recognized for 5 minutes. Welcome.</t>
   </si>
   <si>
-    <t>Scire</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scire. Chairman Luetkemeyer, Ranking Member Cleaver, and members of the subcommittee, thank you for the opportunity to be here today to discuss our work involving the Rural Housing Service.    My statement focuses on issues involving program overlap, improper rental assistance payments, and management of the Farm Labor Housing Program, as well as preliminary observations from ongoing work, assessing risk management in RHS's Single Family Loan Guarantee Program.    In response to a statutory mandate, GAO has identified Federal programs or activities that are fragmented, overlapping, or duplicative. In our 2012 report, we included an analysis of housing programs and activities and reiterated a recommendation that Congress require USDA and HUD to examine the benefits and costs of merging these programs that serve similar markets and provide similar products.    Later in 2012, we identified opportunities to build on existing coordination efforts among the various agencies. For example, we recommended those efforts be expanded to include evaluating specific opportunities for consolidation that would require statutory change. Such an evaluation would be an important step in enhancing the efficiency and effectiveness of Federal support for housing.    Nonetheless, we recognize that consolidating programs carry certain implications for users, existing programs, personnel, portfolios, and associated information systems; thus, any evaluations would involve complex analyses, trade-offs, and difficult policy decisions.    Meanwhile, RHS needs to continue focusing on improving the management of its ongoing programs. In this regard, I can report that it has taken some important steps to address recommendations in our recent studies of rental assistance and farm labor housing.    With regard to the latter, RHS has improved the specificity of compliance review information it maintains in information systems. It has established deadlines for spending obligated funds. And it has sought authority to use the HHS new hires database to verify tenant income.    But it has not completed action on other important recommendations. For example, it could do more to use existing data to target assistance to areas of greatest need. It could better ensure that requirements for tenant eligibility are met across the Farm Labor Housing portfolio. And it could complete its efforts to establish the use of civil money penalties to better enforce program regulations.    In the area of rental assistance payments, RHS has sought authority to use the new hires database and taken other steps, but could do more to implement our recommendations. For example, it should seek OMB review of its move to a $100 threshold for considering a payment to be improper. It could also seek authority for using SSA benefits information.    Finally, we are currently looking at the management of the RHS loan guarantee program for single family loans for the subcommittee. Though this work is still under way, there are a few preliminary observations which I would like to highlight today.    It is important to know that RHS has in place policies and practices and key risk management functions, including underwriting, loan approval, and lender oversight. Also, RHS is taking steps to improve its risk management practices. For example, it is developing an econometric model for estimating program costs and is considering the appointment of a chief risk officer.    Nonetheless, there are some areas we are exploring where there may be more RHS can do to manage risk, for example, by better defining key benchmarks, establishing procedures for its credit policy committee, and documenting lines of authority and communication across its risk management structure.    As we complete our work, we will consider the need for recommendations addressing these and other issues. Looking forward, we are glad to help the subcommittee in its oversight of these important housing programs.    This concludes my opening remarks. Thank you again for the opportunity to speak today. And I would be glad to answer any questions you may have.    [The prepared statement of Mr. Scire can be found on page 52 of the appendix.]</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>412546</t>
   </si>
   <si>
-    <t>Daniel T. Kildee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kildee. I started to get a little worried when you began to excise the distinguished part when you discovered it was going to be me.</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>412484</t>
   </si>
   <si>
-    <t>Robert Hurt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurt. Thank you, Mr. Chairman. I want to thank the Chair for holding this hearing.    I come from a rural district, Virginia's fifth district, and it geographically largest district in the State of Virginia. So we know rural, and we also believe that a huge part of what we need to be doing here in Washington is adopting policies that give greater access to capital all across Virginia, all across rural Virgnia. Because obviously, the people you serve need better jobs, need better income. And that is obviously a part of what I think the focus on our committee should be. And I think it is.    I guess my question is, building on the chairman's questions about sort of the differences between now--I guess this agency was created back in the 1940s--and then. And then also, the difference between what your agency does in the context of HUD and VA programs.    I guess my question is, it sounds like you are supportive of the idea of consolidation and trying to streamline things. But from my understanding, the Administration began this or indicated that it was interested in a single family housing task force back in 2011. And I guess my question is, what is the progress, Mr. Hernandez, of this consolidation review?    And why on earth is it taking so long to develop some clear understanding of where we can streamline these programs and make them serve the taxpayers, as well as the target of the benefit. Once you answer, I would like to get Mr. Scire's comments as well.</t>
   </si>
   <si>
@@ -340,9 +322,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman. I appreciate you having this hearing. We share the concern of Mr. Cleaver there, that if we are going to do something, we remember the rural areas. Mr. Hurt mentioned that he represents the largest rural district in Virginia. My district is almost twice the size of all the State of Virginia. I represent more dirt than anybody here. And so I just want to keep you aware that we watch for the rural piece of this.    Mr. Hernandez, you had mentioned that quite possibly there are some best practices in your agency which other agencies should come and take from you. Could you give me two or three of those?</t>
   </si>
   <si>
@@ -424,9 +403,6 @@
     <t>412565</t>
   </si>
   <si>
-    <t>Joyce Beatty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Beatty. Thank you, Mr. Chairman, and Ranking Member Cleaver. I am still trying to figure out if my cute shoes today hurt or if they are comfortable. But thank you for that.    But thank you, Mr. Cleaver.    I am from Ohio. And my Third Congressional District does not have a lot of rural. But in the great State of Ohio, maybe my colleague Mr. Stivers and others have more of that rural.    But I come with some 20 years of experience, housing experience. More specifically, you mentioned Section 8 with public housing, working with Section 8. So I am not quite as familiar with some of the intimate details with rural housing, but some of the information that I received talks about how in rural housing, you can give direct funds to someone to buy a home.    That would be somewhat unheard of or a disclaimer in public housing. If someone gave you a loan, then you wouldn't be able to qualify and you wouldn't be able to get it unless you are part of the self-sufficiency move out. So I see them as quite different.    So I guess my question to you is, given the current existing shortage of the number of available and affordable rental units in both rural housing and HUD or urban housing supply, and the longstanding underfunding of Federal affordable housing programs, could you describe to me any concerns you would have with consolidating rural housing and HUD programs, as some had suggested?</t>
   </si>
   <si>
@@ -448,9 +424,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman. And thanks to both of the witnesses for being here. We appreciate it.</t>
   </si>
   <si>
@@ -547,9 +520,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    This is a great discussion. And I appreciate the witnesses being here this morning. As I look at some of the challenges our Nation is facing over the coming years, the need to adopt some efficiencies within our government agencies, much like we have been seeing happening in the private sector as companies in the private sector find redundancies and decide to put certain offices together and save on some overhead and a lot of further collaboration.    As the ranking member mentioned, he would like to see a lot of districts have a combination of both the urban and the rural. That pretty much describes my district. I go right down to the City line in Pittsburgh, and then I stretch out to the Ohio border and all the way east to Johnstown, covering about 120 miles of southwestern Pennsylvania. So we have many of these issues, both from an urban perspective and from a rural perspective.    Mr. Hernandez, I understand that HUD and VA and USDA and Treasury all agreed to work toward meeting some GAO recommendations and report on ways to consolidate potentially duplicative housing programs. Have the agencies gotten together to discuss the GAO recommendations?</t>
   </si>
   <si>
@@ -643,9 +613,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman.    And I can tell you that there is an instance that affects my district where I don't have to imagine, where there are actual facts that demonstrate the problem of duplication and overlap.    As you know, if Congress had not passed a grandfather extension in the 2014 Farm bill, there would have been 921 communities that would have lost their eligibility for USDA rural housing programs, including two in my district: Nicholasville, Kentucky; and Georgetown, Kentucky.    As the dynamics of rural America change, especially in the prevalence of rural communities that are near the statistical area of a metropolitan area, the problem becomes distinguishing between what is rural and what is non-rural. And we have rural places that are near urban areas. As a result of those changes, and because of the complexity of this distinction between rural and non-rural, we had a situation where if Congress had not intervened to clarify what these rural places were, these rural places would have been excluded from the rural housing programs for which Mr. Hernandez is part of the administration.    So my question would be, what is the recommendation for a rural definition that would ensure that rural communities in metropolitan statistical areas are not excluded? And wouldn't it be more sensible if you had a single agency responsible for all low-income housing so that as populations shift and change and rural/non-rural boundaries become a little bit more difficult to distinguish, wouldn't it make a lot more sense if you had a single administration of these programs?    Mr. Hernandez, as you answer these questions--you and I have had this conversation. The Federation of Appalachian Housing Enterprises, Inc. (Fahe), in my district, which does some good work, it just doesn't make sense that Congress has to intervene so that certain rural places have to be eligible for one program versus HUD in a nearby urban area.</t>
   </si>
   <si>
@@ -709,9 +676,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellison. I would like to thank the chairman and the ranking member.    Mr. Hernandez, I am concerned about the lack of affordable rental housing for extremely low-income families. The experts say that 80 percent of the families earning below about $30,000 a year pay more than half of their income on housing and utilities. And as you pointed out, housing is a platform from which family success can take off. And I agree with that.    And yet, our Congress has been moving backwards. There is a shortage of about 7 million affordable rental homes for low-income families. And the House HUD budget bill wouldn't even renew all the vouchers that families are using this year, let alone restore any of the 85,000 vouchers lost to sequestration.    So I have a bill out there. And I would like to talk to you a little bit about it. It is called the Common Sense Housing Investment Act, H.R. 1662, that would provide an additional $20 billion a year for affordable rental housing. If my bill were to pass, what additional funds for Section 8 housing trust fund low-income housing tax credit and public housing, what would that mean for rural America? Are you familiar with my bill, by the way?</t>
   </si>
   <si>
@@ -992,9 +956,6 @@
   </si>
   <si>
     <t>400653</t>
-  </si>
-  <si>
-    <t>Al Green</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. I think I am making history today. I have located myself in a bipartisan position.</t>
@@ -1435,11 +1396,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1459,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1487,11 +1444,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1511,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1539,11 +1492,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1563,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1591,11 +1540,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1615,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1643,11 +1588,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1667,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1695,11 +1636,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1719,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1747,11 +1684,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1771,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1799,11 +1732,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1823,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1851,11 +1780,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1875,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1903,11 +1828,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1927,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1955,11 +1876,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1979,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2007,11 +1924,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2031,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2059,11 +1972,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2083,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2111,11 +2020,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2135,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2163,11 +2068,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2187,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2215,11 +2116,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2239,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2265,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2291,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>48</v>
-      </c>
-      <c r="H35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2317,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2343,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2369,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2395,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2421,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2447,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2473,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2499,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2527,11 +2404,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2551,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2577,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2603,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2629,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2655,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
         <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2681,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2707,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2733,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2759,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2785,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2811,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2837,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2863,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2891,11 +2740,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2915,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2941,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2967,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2993,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3019,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3045,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3071,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3097,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3123,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3149,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3175,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3201,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3227,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3253,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3279,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3305,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3331,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3357,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3383,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3409,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3435,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3461,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3487,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3513,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3539,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3565,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3591,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3619,11 +3412,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3643,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3669,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3695,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3721,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3747,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3773,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3799,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s">
+        <v>101</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>108</v>
-      </c>
-      <c r="H93" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3825,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3851,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3877,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3903,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3929,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3955,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3981,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4007,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4033,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4059,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4085,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4111,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4137,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4163,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4189,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4215,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>107</v>
-      </c>
-      <c r="G109" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4241,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4267,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>107</v>
-      </c>
-      <c r="G111" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4295,11 +4036,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4319,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>135</v>
-      </c>
-      <c r="G113" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4345,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4371,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>135</v>
-      </c>
-      <c r="G115" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4397,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4423,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>135</v>
-      </c>
-      <c r="G117" t="s">
-        <v>136</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4451,11 +4180,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4475,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4501,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4527,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
-      </c>
-      <c r="G121" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4553,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4579,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4605,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4631,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4657,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4683,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
-      </c>
-      <c r="G127" t="s">
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>144</v>
-      </c>
-      <c r="H127" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4709,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4735,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
-      </c>
-      <c r="G129" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4761,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4787,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
-      </c>
-      <c r="G131" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4813,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4839,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
-      </c>
-      <c r="G133" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4865,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4891,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
-      </c>
-      <c r="G135" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4917,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4943,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
-      </c>
-      <c r="G137" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4969,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4995,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
-      </c>
-      <c r="G139" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5021,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5047,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>143</v>
-      </c>
-      <c r="G141" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5073,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5099,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>143</v>
-      </c>
-      <c r="G143" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5125,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5151,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5177,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5203,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>143</v>
-      </c>
-      <c r="G147" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5229,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5255,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>143</v>
-      </c>
-      <c r="G149" t="s">
-        <v>144</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5283,11 +4948,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5307,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
-      </c>
-      <c r="G151" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5333,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5359,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5385,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5411,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
-      </c>
-      <c r="G155" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5437,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5463,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>176</v>
-      </c>
-      <c r="G157" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5489,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5515,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
+        <v>167</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
         <v>176</v>
-      </c>
-      <c r="G159" t="s">
-        <v>177</v>
-      </c>
-      <c r="H159" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5541,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5567,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>176</v>
-      </c>
-      <c r="G161" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5593,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5619,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>176</v>
-      </c>
-      <c r="G163" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5645,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5671,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>176</v>
-      </c>
-      <c r="G165" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5697,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5723,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>176</v>
-      </c>
-      <c r="G167" t="s">
-        <v>177</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5751,11 +5380,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5775,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5801,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5827,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5853,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5879,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5905,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5931,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5957,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5983,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6009,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6035,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6063,11 +5668,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6087,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>208</v>
-      </c>
-      <c r="G181" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6113,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6139,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>208</v>
-      </c>
-      <c r="G183" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6165,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6191,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>208</v>
-      </c>
-      <c r="G185" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6217,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6243,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>208</v>
-      </c>
-      <c r="G187" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6269,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6295,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>208</v>
-      </c>
-      <c r="G189" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6321,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6347,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
+        <v>198</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
         <v>208</v>
-      </c>
-      <c r="G191" t="s">
-        <v>209</v>
-      </c>
-      <c r="H191" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6373,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6399,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>208</v>
-      </c>
-      <c r="G193" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6425,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6451,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6477,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>208</v>
-      </c>
-      <c r="G196" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6503,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6529,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
-      </c>
-      <c r="G198" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6555,13 +6122,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6581,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>208</v>
-      </c>
-      <c r="G200" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6609,11 +6172,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6633,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>230</v>
-      </c>
-      <c r="G202" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6659,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6685,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>230</v>
-      </c>
-      <c r="G204" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6711,13 +6266,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6737,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>230</v>
-      </c>
-      <c r="G206" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6763,13 +6314,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6789,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
-      </c>
-      <c r="G208" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6815,13 +6362,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6841,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
-      </c>
-      <c r="G210" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6867,13 +6410,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6893,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
-      </c>
-      <c r="G212" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6919,13 +6458,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6945,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>230</v>
-      </c>
-      <c r="G214" t="s">
+        <v>219</v>
+      </c>
+      <c r="G214" t="s"/>
+      <c r="H214" t="s">
         <v>231</v>
-      </c>
-      <c r="H214" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6971,13 +6506,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6997,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>230</v>
-      </c>
-      <c r="G216" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7023,13 +6554,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7049,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>230</v>
-      </c>
-      <c r="G218" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7077,11 +6604,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7101,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7127,13 +6650,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7153,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7179,13 +6698,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7205,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7233,11 +6748,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7257,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>208</v>
-      </c>
-      <c r="G226" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7283,13 +6794,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7309,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>208</v>
-      </c>
-      <c r="G228" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7335,13 +6842,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7361,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>208</v>
-      </c>
-      <c r="G230" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7387,13 +6890,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7413,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>208</v>
-      </c>
-      <c r="G232" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7439,13 +6938,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7465,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>208</v>
-      </c>
-      <c r="G234" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7491,13 +6986,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7517,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>208</v>
-      </c>
-      <c r="G236" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7543,13 +7034,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7569,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>208</v>
-      </c>
-      <c r="G238" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7595,13 +7082,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7621,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>208</v>
-      </c>
-      <c r="G240" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7647,13 +7130,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7673,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7699,13 +7178,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7725,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7753,11 +7228,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7777,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>208</v>
-      </c>
-      <c r="G246" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7803,13 +7274,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7829,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>208</v>
-      </c>
-      <c r="G248" t="s">
-        <v>209</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7857,11 +7324,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7881,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>107</v>
-      </c>
-      <c r="G250" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7907,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7933,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>107</v>
-      </c>
-      <c r="G252" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7959,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7985,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>107</v>
-      </c>
-      <c r="G254" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8011,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8037,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>107</v>
-      </c>
-      <c r="G256" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8063,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8089,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>107</v>
-      </c>
-      <c r="G258" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8115,13 +7562,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8141,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>107</v>
-      </c>
-      <c r="G260" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8167,13 +7610,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8193,13 +7634,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>107</v>
-      </c>
-      <c r="G262" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8219,13 +7658,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8245,13 +7682,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>107</v>
-      </c>
-      <c r="G264" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8271,13 +7706,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
-      </c>
-      <c r="G265" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8297,13 +7730,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>107</v>
-      </c>
-      <c r="G266" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8323,13 +7754,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8349,13 +7778,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>107</v>
-      </c>
-      <c r="G268" t="s">
-        <v>108</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8377,11 +7804,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8401,13 +7826,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>18</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8429,11 +7852,9 @@
       <c r="F271" t="s">
         <v>11</v>
       </c>
-      <c r="G271" t="s">
-        <v>12</v>
-      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8453,13 +7874,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
-      </c>
-      <c r="G272" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8481,11 +7900,9 @@
       <c r="F273" t="s">
         <v>11</v>
       </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8505,13 +7922,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>18</v>
-      </c>
-      <c r="G274" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8533,11 +7948,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8557,13 +7970,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8585,11 +7996,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8609,13 +8018,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8637,11 +8044,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8661,13 +8066,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>18</v>
-      </c>
-      <c r="G280" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8689,11 +8092,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>12</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8713,13 +8114,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>18</v>
-      </c>
-      <c r="G282" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8741,11 +8140,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8765,13 +8162,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>18</v>
-      </c>
-      <c r="G284" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8793,11 +8188,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8817,13 +8210,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>18</v>
-      </c>
-      <c r="G286" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8845,11 +8236,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8869,13 +8258,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>18</v>
-      </c>
-      <c r="G288" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8897,11 +8284,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8921,13 +8306,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>18</v>
-      </c>
-      <c r="G290" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8949,11 +8332,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8973,13 +8354,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>18</v>
-      </c>
-      <c r="G292" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9001,11 +8380,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9025,13 +8402,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>18</v>
-      </c>
-      <c r="G294" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9053,11 +8428,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9077,13 +8450,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>18</v>
-      </c>
-      <c r="G296" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9105,11 +8476,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9129,13 +8498,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>18</v>
-      </c>
-      <c r="G298" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9157,11 +8524,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9181,13 +8546,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>325</v>
-      </c>
-      <c r="G300" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9209,11 +8572,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9233,13 +8594,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>325</v>
-      </c>
-      <c r="G302" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9261,11 +8620,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9285,13 +8642,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>325</v>
-      </c>
-      <c r="G304" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9313,11 +8668,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9337,13 +8690,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>325</v>
-      </c>
-      <c r="G306" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9363,13 +8714,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>18</v>
-      </c>
-      <c r="G307" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9389,13 +8738,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>325</v>
-      </c>
-      <c r="G308" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9415,13 +8762,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>18</v>
-      </c>
-      <c r="G309" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9441,13 +8786,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>325</v>
-      </c>
-      <c r="G310" t="s">
-        <v>326</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9467,13 +8810,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>18</v>
-      </c>
-      <c r="G311" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9493,13 +8834,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>325</v>
-      </c>
-      <c r="G312" t="s">
+        <v>313</v>
+      </c>
+      <c r="G312" t="s"/>
+      <c r="H312" t="s">
         <v>326</v>
-      </c>
-      <c r="H312" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9521,11 +8860,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>12</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
